--- a/optiuni-f1.xlsx
+++ b/optiuni-f1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfn7021\Downloads\wishlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5FD84F-FE8C-40C3-B7D3-2C04B39CCA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0DB918-C3EC-4803-B59D-8994BEF2851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{FE4DC328-739C-48AF-B2EF-9BDF321350CE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Optiuni F1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Optiuni F1'!$A$1:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Optiuni F1'!$A$1:$E$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Image</t>
   </si>
@@ -131,9 +131,6 @@
     <t>https://d2xpg1khvwxlf1.cloudfront.net/production/images/original/67029-F1-Experiences-Silverstone-Seating-Chart-Woodcote-B-80e335ff3ec83ed2b49451ed07316e34.png</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>https://f1experiences.com/2026-barcelona-grand-prix/starter-g</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
   </si>
   <si>
     <t>Montréal, Canada, 21-26 May 2026 - F1® Experiences Live | Grandstand 31 (THU - SUN)</t>
-  </si>
-  <si>
-    <t>Montréal, Canada, 21-26 May 2026 - Doar bilet</t>
   </si>
   <si>
     <t>Monte Carlo, Monaco, 04-07 Jun 2026 - depaseste bugetul</t>
@@ -620,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,13 +647,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>1239.95</v>
@@ -667,13 +661,13 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D3">
         <v>1526.48</v>
@@ -681,71 +675,77 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>933.5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D7">
-        <v>933.5</v>
+        <v>1004.09</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>1004.09</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>760</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>896.13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,46 +753,46 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>896.13</v>
+        <v>1693.41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>1693.41</v>
+        <v>825</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>825</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>1405.6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -800,90 +800,88 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>1405.6</v>
+        <v>1648.08</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <v>1648.08</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>833.01</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>833.01</v>
+        <v>1661.83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>1661.83</v>
+        <v>880</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21">
-        <v>880</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>1025.71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,63 +889,49 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>1025.71</v>
+        <v>768.68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>768.68</v>
+        <v>790</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25">
-        <v>790</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E27" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D27">
-    <sortCondition ref="D2:D27"/>
+  <autoFilter ref="A1:E26" xr:uid="{2CF9E297-72DE-4386-8002-570237626454}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D26">
+    <sortCondition ref="D2:D26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
